--- a/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" tabRatio="918"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -83,12 +83,6 @@
     <t>clientSupplierAlias</t>
   </si>
   <si>
-    <t>Automation Supplier</t>
-  </si>
-  <si>
-    <t>aus</t>
-  </si>
-  <si>
     <t>TS-197</t>
   </si>
   <si>
@@ -126,6 +120,18 @@
   </si>
   <si>
     <t>gaurav_admin@sirionqa.office</t>
+  </si>
+  <si>
+    <t>Ajay Supplier</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -593,7 +601,9 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
   </sheetData>
@@ -606,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,24 +697,26 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4">
         <v>987654321</v>
@@ -716,13 +728,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>19</v>
@@ -730,24 +742,26 @@
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4">
         <v>987654321</v>
@@ -759,13 +773,13 @@
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -773,24 +787,26 @@
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4">
         <v>987654321</v>
@@ -802,13 +818,13 @@
         <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>
@@ -816,7 +832,9 @@
       <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O5" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" tabRatio="918"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -83,12 +83,6 @@
     <t>clientSupplierAlias</t>
   </si>
   <si>
-    <t>Automation Supplier</t>
-  </si>
-  <si>
-    <t>aus</t>
-  </si>
-  <si>
     <t>TS-197</t>
   </si>
   <si>
@@ -126,12 +120,25 @@
   </si>
   <si>
     <t>gaurav_admin@sirionqa.office</t>
+  </si>
+  <si>
+    <t>Auto Supplier</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,14 +556,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,24 +613,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.58203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,24 +696,26 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4">
         <v>987654321</v>
@@ -716,13 +727,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>19</v>
@@ -730,24 +741,26 @@
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4">
         <v>987654321</v>
@@ -759,13 +772,13 @@
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -773,24 +786,26 @@
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4">
         <v>987654321</v>
@@ -802,13 +817,13 @@
         <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>

--- a/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -83,6 +83,12 @@
     <t>clientSupplierAlias</t>
   </si>
   <si>
+    <t>Automation Supplier</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
     <t>TS-197</t>
   </si>
   <si>
@@ -120,18 +126,6 @@
   </si>
   <si>
     <t>gaurav_admin@sirionqa.office</t>
-  </si>
-  <si>
-    <t>Ajay Supplier</t>
-  </si>
-  <si>
-    <t>ajay</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -555,9 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -601,9 +593,7 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
   </sheetData>
@@ -697,26 +687,24 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4">
         <v>987654321</v>
@@ -728,13 +716,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>19</v>
@@ -742,26 +730,24 @@
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4">
         <v>987654321</v>
@@ -773,13 +759,13 @@
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -787,26 +773,24 @@
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4">
         <v>987654321</v>
@@ -818,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>19</v>
@@ -832,9 +816,7 @@
       <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Sirion User Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
